--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -17,22 +17,13 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,16 +32,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,9 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -396,19 +399,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1" spans="1:13">
+      <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" s="1">
@@ -441,427 +441,464 @@
       <c r="L1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3.6643402580967019</v>
+      </c>
+      <c r="C2">
+        <v>3.4078351487535148</v>
+      </c>
+      <c r="D2">
+        <v>3.2483436884286689</v>
+      </c>
+      <c r="E2">
+        <v>3.830613201682084</v>
+      </c>
+      <c r="F2">
+        <v>3.5647804597031398</v>
+      </c>
+      <c r="G2">
+        <v>3.5867668877416681</v>
+      </c>
+      <c r="H2">
+        <v>2.5490703428799679</v>
+      </c>
+      <c r="I2">
+        <v>2.8258282803860699</v>
+      </c>
+      <c r="J2">
+        <v>2.9647221234199082</v>
+      </c>
+      <c r="K2">
+        <v>3.092827649188552</v>
+      </c>
+      <c r="L2">
+        <v>3.4610129720613441</v>
+      </c>
+      <c r="M2">
+        <v>3.828791907116559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>3.3312184164515468</v>
-      </c>
-      <c r="C2">
-        <v>3.1416658159726389</v>
-      </c>
-      <c r="D2">
-        <v>2.9407902481792121</v>
-      </c>
-      <c r="E2">
-        <v>2.41906509208011</v>
-      </c>
-      <c r="F2">
-        <v>1.937535628220896</v>
-      </c>
-      <c r="G2">
-        <v>0.49259037631067548</v>
-      </c>
-      <c r="H2">
-        <v>0.41122062412669053</v>
-      </c>
-      <c r="I2">
-        <v>0.32846027824290669</v>
-      </c>
-      <c r="J2">
-        <v>3.8301892468508521E-2</v>
-      </c>
-      <c r="K2">
-        <v>1.137267381202741E-2</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
+      <c r="B3" s="3"/>
+      <c r="C3">
+        <v>3.66219225837304</v>
+      </c>
+      <c r="D3">
+        <v>3.3316924240072048</v>
+      </c>
+      <c r="E3">
+        <v>3.8943163902317401</v>
+      </c>
+      <c r="F3">
+        <v>3.5950320742244308</v>
+      </c>
+      <c r="G3">
+        <v>3.553289043024848</v>
+      </c>
+      <c r="H3">
+        <v>2.6525568764783558</v>
+      </c>
+      <c r="I3">
+        <v>2.949161395733138</v>
+      </c>
+      <c r="J3">
+        <v>3.0954297671041702</v>
+      </c>
+      <c r="K3">
+        <v>3.3712273783170299</v>
+      </c>
+      <c r="L3">
+        <v>3.6444299912450648</v>
+      </c>
+      <c r="M3">
+        <v>3.8582165855534578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>3.329265689430037</v>
-      </c>
-      <c r="D3">
-        <v>3.139222916631268</v>
-      </c>
-      <c r="E3">
-        <v>2.6148908002337219</v>
-      </c>
-      <c r="F3">
-        <v>2.1415064290266539</v>
-      </c>
-      <c r="G3">
-        <v>0.79249036036054021</v>
-      </c>
-      <c r="H3">
-        <v>0.71064233221426254</v>
-      </c>
-      <c r="I3">
-        <v>0.62209607631325181</v>
-      </c>
-      <c r="J3">
-        <v>0.47615361184055521</v>
-      </c>
-      <c r="K3">
-        <v>0.35534009162160612</v>
-      </c>
-      <c r="L3">
-        <v>0.1938763274567557</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
+      <c r="B4" s="3"/>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3.662555265340953</v>
+      </c>
+      <c r="E4">
+        <v>3.8623099079813059</v>
+      </c>
+      <c r="F4">
+        <v>3.485588636952917</v>
+      </c>
+      <c r="G4">
+        <v>3.3312317121347141</v>
+      </c>
+      <c r="H4">
+        <v>2.516648250911719</v>
+      </c>
+      <c r="I4">
+        <v>2.8647226834847919</v>
+      </c>
+      <c r="J4">
+        <v>3.0374667832800908</v>
+      </c>
+      <c r="K4">
+        <v>3.354716110544405</v>
+      </c>
+      <c r="L4">
+        <v>3.624255167910976</v>
+      </c>
+      <c r="M4">
+        <v>3.8260855921129262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3.3295956957645019</v>
-      </c>
-      <c r="E4">
-        <v>2.7908010769444842</v>
-      </c>
-      <c r="F4">
-        <v>2.31110952894602</v>
-      </c>
-      <c r="G4">
-        <v>0.93847492411777678</v>
-      </c>
-      <c r="H4">
-        <v>0.859709145737656</v>
-      </c>
-      <c r="I4">
-        <v>0.77360987884114563</v>
-      </c>
-      <c r="J4">
-        <v>0.64929533137233064</v>
-      </c>
-      <c r="K4">
-        <v>0.51414379963182999</v>
-      </c>
-      <c r="L4">
-        <v>0.33534579658777081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
+      <c r="B5" s="3"/>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3.2522409638187861</v>
+      </c>
+      <c r="F5">
+        <v>3.0540417458883931</v>
+      </c>
+      <c r="G5">
+        <v>2.7802157290738481</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.307287985532549</v>
+      </c>
+      <c r="I5">
+        <v>2.7360109125009902</v>
+      </c>
+      <c r="J5">
+        <v>2.942816061378235</v>
+      </c>
+      <c r="K5">
+        <v>3.3010131287490179</v>
+      </c>
+      <c r="L5">
+        <v>3.5699474593474978</v>
+      </c>
+      <c r="M5">
+        <v>3.756421849545255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2.9565826943807139</v>
-      </c>
-      <c r="F5">
-        <v>2.4700197326358708</v>
-      </c>
-      <c r="G5">
-        <v>1.070827690775076</v>
-      </c>
-      <c r="H5">
-        <v>0.99363035861773963</v>
-      </c>
-      <c r="I5">
-        <v>0.90830742927684582</v>
-      </c>
-      <c r="J5">
-        <v>0.79854005429241381</v>
-      </c>
-      <c r="K5">
-        <v>0.64911060810759647</v>
-      </c>
-      <c r="L5">
-        <v>0.44803282034364128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
+      <c r="B6" s="3"/>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3.4066366945096682</v>
+      </c>
+      <c r="G6">
+        <v>3.3481246316564062</v>
+      </c>
+      <c r="H6">
+        <v>3.1375332666471398</v>
+      </c>
+      <c r="I6">
+        <v>3.414733278597835</v>
+      </c>
+      <c r="J6">
+        <v>3.5013228123099198</v>
+      </c>
+      <c r="K6">
+        <v>3.7426336824197382</v>
+      </c>
+      <c r="L6">
+        <v>3.8409610247496069</v>
+      </c>
+      <c r="M6">
+        <v>3.85377718775415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>3.096942449554243</v>
-      </c>
-      <c r="G6">
-        <v>2.1108221316514348</v>
-      </c>
-      <c r="H6">
-        <v>1.967120199543692</v>
-      </c>
-      <c r="I6">
-        <v>1.807085146670798</v>
-      </c>
-      <c r="J6">
-        <v>1.655868546069388</v>
-      </c>
-      <c r="K6">
-        <v>1.4026622345886599</v>
-      </c>
-      <c r="L6">
-        <v>1.089131368234024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
+      <c r="B7" s="3"/>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.9141182547991362</v>
+      </c>
+      <c r="H7">
+        <v>3.4674283071342349</v>
+      </c>
+      <c r="I7">
+        <v>3.6457540661254528</v>
+      </c>
+      <c r="J7">
+        <v>3.6670938943909919</v>
+      </c>
+      <c r="K7">
+        <v>3.8189073487302658</v>
+      </c>
+      <c r="L7">
+        <v>3.7996016769827698</v>
+      </c>
+      <c r="M7">
+        <v>3.6881252282680239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>2.6491984134537598</v>
-      </c>
-      <c r="H7">
-        <v>2.475777569081814</v>
-      </c>
-      <c r="I7">
-        <v>2.282377314054981</v>
-      </c>
-      <c r="J7">
-        <v>2.1133567026972782</v>
-      </c>
-      <c r="K7">
-        <v>1.8065050837622829</v>
-      </c>
-      <c r="L7">
-        <v>1.4276669953436449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
+      <c r="B8" s="3"/>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.6145974414348681</v>
+      </c>
+      <c r="I8">
+        <v>3.303845702908303</v>
+      </c>
+      <c r="J8">
+        <v>3.1812031970800949</v>
+      </c>
+      <c r="K8">
+        <v>3.147498126666167</v>
+      </c>
+      <c r="L8">
+        <v>2.9050302336811349</v>
+      </c>
+      <c r="M8">
+        <v>2.572268711842669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3.285997674031699</v>
-      </c>
-      <c r="I8">
-        <v>3.037681733246397</v>
-      </c>
-      <c r="J8">
-        <v>2.8255238412035322</v>
-      </c>
-      <c r="K8">
-        <v>2.4444091218849922</v>
-      </c>
-      <c r="L8">
-        <v>1.9811602602698579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
+      <c r="B9" s="3"/>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>3.6036096198618681</v>
+      </c>
+      <c r="J9">
+        <v>3.385233762700437</v>
+      </c>
+      <c r="K9">
+        <v>3.3542893486459291</v>
+      </c>
+      <c r="L9">
+        <v>3.1212130837630969</v>
+      </c>
+      <c r="M9">
+        <v>2.8098867416929671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>3.276008745328971</v>
-      </c>
-      <c r="J9">
-        <v>3.0771432011436661</v>
-      </c>
-      <c r="K9">
-        <v>2.721181233368239</v>
-      </c>
-      <c r="L9">
-        <v>2.2958609615346042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
+      <c r="B10" s="3"/>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3.6539847161987291</v>
+      </c>
+      <c r="K10">
+        <v>3.5480484226618159</v>
+      </c>
+      <c r="L10">
+        <v>3.3259773083357431</v>
+      </c>
+      <c r="M10">
+        <v>3.0314062886036242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>3.3218042874533902</v>
-      </c>
-      <c r="K10">
-        <v>2.987641626018835</v>
-      </c>
-      <c r="L10">
-        <v>2.5934592509464149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
+      <c r="B11" s="3"/>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3.5037997813851591</v>
+      </c>
+      <c r="L11">
+        <v>3.209430140513867</v>
+      </c>
+      <c r="M11">
+        <v>2.861467591239633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>3.185272528531963</v>
-      </c>
-      <c r="L11">
-        <v>2.804014752536871</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
+      <c r="B12" s="3"/>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3.476958373107629</v>
+      </c>
+      <c r="M12">
+        <v>3.1836165959037168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>3.1608712482796619</v>
+      <c r="B13" s="3"/>
+      <c r="M13">
+        <v>3.449640298249316</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -871,124 +908,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>3.232410183028779</v>
+        <v>3.2922960038373539</v>
       </c>
       <c r="C2">
-        <v>3.0003219047409231</v>
+        <v>3.1210506975416239</v>
       </c>
       <c r="D2">
-        <v>2.795184316408327</v>
+        <v>3.6388042883652401</v>
       </c>
       <c r="E2">
-        <v>2.4573682742771519</v>
+        <v>3.782957972117345</v>
       </c>
       <c r="F2">
-        <v>1.9538561569436419</v>
+        <v>3.9173226673433139</v>
       </c>
       <c r="G2">
-        <v>0.62206637205199677</v>
+        <v>2.8934892035123321</v>
       </c>
       <c r="H2">
-        <v>0.53769791297060088</v>
+        <v>3.0815550222493759</v>
       </c>
       <c r="I2">
-        <v>0.4419939702419482</v>
+        <v>3.1460902624329679</v>
       </c>
       <c r="J2">
-        <v>3.5017782814436987E-2</v>
+        <v>3.1188778638528158</v>
       </c>
       <c r="K2">
-        <v>2.135034370266806E-2</v>
+        <v>3.4250450036960971</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3.7371709283486898</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.2055866121961261</v>
+        <v>3.303337981181329</v>
       </c>
       <c r="D3">
-        <v>3.012939930215067</v>
+        <v>3.7078636544584178</v>
       </c>
       <c r="E3">
-        <v>2.6640347418149251</v>
+        <v>3.7566398448845031</v>
       </c>
       <c r="F3">
-        <v>2.1355206247246059</v>
+        <v>3.7654624939412269</v>
       </c>
       <c r="G3">
-        <v>0.70813317891842087</v>
+        <v>2.6981346251106162</v>
       </c>
       <c r="H3">
-        <v>0.63261124817723524</v>
+        <v>2.928493932619515</v>
       </c>
       <c r="I3">
-        <v>0.54901435592143499</v>
+        <v>3.016215617064669</v>
       </c>
       <c r="J3">
-        <v>0.2389376164560488</v>
+        <v>3.111804113380118</v>
       </c>
       <c r="K3">
-        <v>0.17484385490421961</v>
+        <v>3.3846080294480769</v>
       </c>
       <c r="L3">
-        <v>0.1015379238028661</v>
+        <v>3.657189125134523</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -997,36 +1036,36 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.2436027174959068</v>
+        <v>3.6787652480796189</v>
       </c>
       <c r="E4">
-        <v>2.877388362799759</v>
+        <v>3.5793402089252062</v>
       </c>
       <c r="F4">
-        <v>2.3159266913451879</v>
+        <v>3.4211586352695211</v>
       </c>
       <c r="G4">
-        <v>0.77283154156978673</v>
+        <v>2.361508699636806</v>
       </c>
       <c r="H4">
-        <v>0.70307614149889042</v>
+        <v>2.661123389551395</v>
       </c>
       <c r="I4">
-        <v>0.62726338807414395</v>
+        <v>2.7726155968147199</v>
       </c>
       <c r="J4">
-        <v>0.30952405708113628</v>
+        <v>2.9085245675323761</v>
       </c>
       <c r="K4">
-        <v>0.24066837779274011</v>
+        <v>3.206124446095024</v>
       </c>
       <c r="L4">
-        <v>0.17039756804325309</v>
+        <v>3.5040885733109448</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1038,33 +1077,33 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.051643237773674</v>
+        <v>3.1570842257732079</v>
       </c>
       <c r="F5">
-        <v>2.471752724473177</v>
-      </c>
-      <c r="G5">
-        <v>0.87020543110421245</v>
+        <v>2.8764119550676641</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.079259408145314</v>
       </c>
       <c r="H5">
-        <v>0.80520072307939561</v>
+        <v>2.468725512538319</v>
       </c>
       <c r="I5">
-        <v>0.73536354865078457</v>
+        <v>2.6119297426803691</v>
       </c>
       <c r="J5">
-        <v>0.46003228323688272</v>
+        <v>2.83217440857285</v>
       </c>
       <c r="K5">
-        <v>0.36774983477014378</v>
+        <v>3.129431373985093</v>
       </c>
       <c r="L5">
-        <v>0.27492526614161622</v>
+        <v>3.4195076221009839</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1079,30 +1118,30 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.9076474113515731</v>
+        <v>3.1261024969859661</v>
       </c>
       <c r="G6">
-        <v>1.6934994363766429</v>
+        <v>2.7399627687392289</v>
       </c>
       <c r="H6">
-        <v>1.5847135625771831</v>
+        <v>3.050305722299433</v>
       </c>
       <c r="I6">
-        <v>1.4680635751134341</v>
+        <v>3.1422266050825161</v>
       </c>
       <c r="J6">
-        <v>1.295493518686281</v>
+        <v>3.413087464284001</v>
       </c>
       <c r="K6">
-        <v>1.107658881824535</v>
+        <v>3.5739985008862272</v>
       </c>
       <c r="L6">
-        <v>0.90813465651343495</v>
+        <v>3.7165555414016089</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1120,27 +1159,27 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.444347622703301</v>
+        <v>3.2689427526112591</v>
       </c>
       <c r="H7">
-        <v>2.2945346963097442</v>
+        <v>3.4620500319738832</v>
       </c>
       <c r="I7">
-        <v>2.134575001052831</v>
+        <v>3.4914280261668029</v>
       </c>
       <c r="J7">
-        <v>1.9681066754780641</v>
+        <v>3.685603255600141</v>
       </c>
       <c r="K7">
-        <v>1.7076179844672601</v>
+        <v>3.7082505617137098</v>
       </c>
       <c r="L7">
-        <v>1.4300623916301021</v>
+        <v>3.7095612413976848</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1161,24 +1200,24 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.2214162292952659</v>
+        <v>3.223338634048849</v>
       </c>
       <c r="I8">
-        <v>3.0039668250993281</v>
+        <v>3.2677315408014049</v>
       </c>
       <c r="J8">
-        <v>2.814370115000199</v>
+        <v>3.2911649693308038</v>
       </c>
       <c r="K8">
-        <v>2.472301483889904</v>
+        <v>3.0753334611768999</v>
       </c>
       <c r="L8">
-        <v>2.1070596757939759</v>
+        <v>2.8535393222563719</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1202,21 +1241,21 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.2205634520006141</v>
+        <v>3.4080270428196751</v>
       </c>
       <c r="J9">
-        <v>3.038726367118552</v>
+        <v>3.451312416153526</v>
       </c>
       <c r="K9">
-        <v>2.7159762998794772</v>
+        <v>3.2534993973090338</v>
       </c>
       <c r="L9">
-        <v>2.376692881993216</v>
+        <v>3.0488152732064671</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1243,18 +1282,18 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.250044314058179</v>
+        <v>3.586173872487632</v>
       </c>
       <c r="K10">
-        <v>2.9432841148702402</v>
+        <v>3.4065152008549839</v>
       </c>
       <c r="L10">
-        <v>2.6248268704619782</v>
+        <v>3.2141521641179089</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1284,15 +1323,15 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.1185203371658909</v>
+        <v>3.13640452684316</v>
       </c>
       <c r="L11">
-        <v>2.8017343691215588</v>
+        <v>2.854261043343215</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1325,11 +1364,11 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.1346739664575591</v>
+        <v>3.1773746538628949</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1338,124 +1377,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>3.08867104207539</v>
+        <v>3.1110568442333011</v>
       </c>
       <c r="C2">
-        <v>2.8866705731442481</v>
+        <v>2.9989714069507181</v>
       </c>
       <c r="D2">
-        <v>2.699019972325698</v>
+        <v>3.392139872817904</v>
       </c>
       <c r="E2">
-        <v>2.400709069966517</v>
+        <v>3.5281446718366869</v>
       </c>
       <c r="F2">
-        <v>1.9486981549888029</v>
+        <v>3.7725021639431682</v>
       </c>
       <c r="G2">
-        <v>0.56105677178829061</v>
+        <v>2.6787611827851592</v>
       </c>
       <c r="H2">
-        <v>0.47645638073743668</v>
+        <v>2.8685615004718081</v>
       </c>
       <c r="I2">
-        <v>0.38899467540191163</v>
+        <v>2.941881443150971</v>
       </c>
       <c r="J2">
-        <v>2.9002890498937881E-2</v>
+        <v>2.943794402524083</v>
       </c>
       <c r="K2">
-        <v>1.3411313905414951E-2</v>
+        <v>3.2569664496874329</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3.5689065582099859</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.0803050136697769</v>
+        <v>3.168503729679323</v>
       </c>
       <c r="D3">
-        <v>2.9036273193499218</v>
+        <v>3.4599176042057</v>
       </c>
       <c r="E3">
-        <v>2.5992338696855488</v>
+        <v>3.5088826508199769</v>
       </c>
       <c r="F3">
-        <v>2.1287682052410442</v>
+        <v>3.629071160280402</v>
       </c>
       <c r="G3">
-        <v>0.64813061568668839</v>
+        <v>2.4944264079525191</v>
       </c>
       <c r="H3">
-        <v>0.57292435616611603</v>
+        <v>2.728030784605437</v>
       </c>
       <c r="I3">
-        <v>0.49648565029233149</v>
+        <v>2.8260317901716658</v>
       </c>
       <c r="J3">
-        <v>0.24334646815880531</v>
+        <v>2.9592457601457109</v>
       </c>
       <c r="K3">
-        <v>0.18214453941908301</v>
+        <v>3.2430152816751998</v>
       </c>
       <c r="L3">
-        <v>0.1026015932237572</v>
+        <v>3.5001397395066869</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1464,36 +1505,36 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.1038769593363922</v>
+        <v>3.4456469838733819</v>
       </c>
       <c r="E4">
-        <v>2.790610768250589</v>
+        <v>3.3721897052894758</v>
       </c>
       <c r="F4">
-        <v>2.298417229355064</v>
+        <v>3.344311432641645</v>
       </c>
       <c r="G4">
-        <v>0.71676794281435008</v>
+        <v>2.2173657652663068</v>
       </c>
       <c r="H4">
-        <v>0.64822392318303046</v>
+        <v>2.515590675889384</v>
       </c>
       <c r="I4">
-        <v>0.579753573407776</v>
+        <v>2.641558274915615</v>
       </c>
       <c r="J4">
-        <v>0.34484123187527072</v>
+        <v>2.8304176619264032</v>
       </c>
       <c r="K4">
-        <v>0.27342114731495321</v>
+        <v>3.1276419800749902</v>
       </c>
       <c r="L4">
-        <v>0.18382560317982441</v>
+        <v>3.3912373511178782</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1505,33 +1546,33 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.9566135573793129</v>
+        <v>3.071231553413059</v>
       </c>
       <c r="F5">
-        <v>2.454994594411311</v>
-      </c>
-      <c r="G5">
-        <v>0.84064887325300464</v>
+        <v>2.942211572207575</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.018553347726058</v>
       </c>
       <c r="H5">
-        <v>0.77647910185353419</v>
+        <v>2.3923252077002268</v>
       </c>
       <c r="I5">
-        <v>0.71085797607135315</v>
+        <v>2.547353222849333</v>
       </c>
       <c r="J5">
-        <v>0.51866045364230096</v>
+        <v>2.8085053908335298</v>
       </c>
       <c r="K5">
-        <v>0.4218781934074774</v>
+        <v>3.0962464845951492</v>
       </c>
       <c r="L5">
-        <v>0.30148857032597831</v>
+        <v>3.337886039192389</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1546,30 +1587,30 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.8148665930679382</v>
+        <v>3.0874624721980508</v>
       </c>
       <c r="G6">
-        <v>1.530300475263533</v>
+        <v>2.5497667945761782</v>
       </c>
       <c r="H6">
-        <v>1.433053648084603</v>
+        <v>2.8683577749907081</v>
       </c>
       <c r="I6">
-        <v>1.3260614462516149</v>
+        <v>2.979862489833895</v>
       </c>
       <c r="J6">
-        <v>1.1844453593282249</v>
+        <v>3.2509040933610041</v>
       </c>
       <c r="K6">
-        <v>1.0085603789013939</v>
+        <v>3.4242909930519012</v>
       </c>
       <c r="L6">
-        <v>0.80195852325589279</v>
+        <v>3.5456260317890549</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1587,27 +1628,27 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.220586863957537</v>
+        <v>3.038004765876801</v>
       </c>
       <c r="H7">
-        <v>2.0870867316266888</v>
+        <v>3.2575128325887119</v>
       </c>
       <c r="I7">
-        <v>1.9385577387828581</v>
+        <v>3.3087358540460459</v>
       </c>
       <c r="J7">
-        <v>1.7935447311565129</v>
+        <v>3.505616039571867</v>
       </c>
       <c r="K7">
-        <v>1.551259605149975</v>
+        <v>3.55272817531685</v>
       </c>
       <c r="L7">
-        <v>1.2705846468595241</v>
+        <v>3.5440658276797938</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1628,24 +1669,24 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.0802083934628399</v>
+        <v>3.100241333532082</v>
       </c>
       <c r="I8">
-        <v>2.8683477637216441</v>
+        <v>3.0757258683148829</v>
       </c>
       <c r="J8">
-        <v>2.6869940168075068</v>
+        <v>3.09052301574095</v>
       </c>
       <c r="K8">
-        <v>2.3604916147696651</v>
+        <v>2.8994254952280958</v>
       </c>
       <c r="L8">
-        <v>1.988103071066126</v>
+        <v>2.661371197212075</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1669,21 +1710,21 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.0713152544511551</v>
+        <v>3.2269402754588521</v>
       </c>
       <c r="J9">
-        <v>2.8990539162057671</v>
+        <v>3.2481199704192778</v>
       </c>
       <c r="K9">
-        <v>2.5905612234187831</v>
+        <v>3.0651138255096191</v>
       </c>
       <c r="L9">
-        <v>2.2430761199033991</v>
+        <v>2.8386465958251952</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1710,18 +1751,18 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.1062340618309801</v>
+        <v>3.390829537613306</v>
       </c>
       <c r="K10">
-        <v>2.813987509395643</v>
+        <v>3.22132760781765</v>
       </c>
       <c r="L10">
-        <v>2.488179139335859</v>
+        <v>3.006838706538407</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1751,15 +1792,15 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.9816438609996192</v>
+        <v>2.988399936425655</v>
       </c>
       <c r="L11">
-        <v>2.6594699950567549</v>
+        <v>2.7029743308051621</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1792,407 +1833,421 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.975344164770295</v>
+        <v>3.0021667925811251</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="B2">
+        <v>3.6643402580967019</v>
+      </c>
+      <c r="C2">
+        <v>3.1106609785098169</v>
+      </c>
+      <c r="D2">
+        <v>3.067285170292271</v>
+      </c>
+      <c r="E2">
+        <v>3.363240104205095</v>
+      </c>
+      <c r="F2">
+        <v>3.590499028627232</v>
+      </c>
+      <c r="G2">
+        <v>3.7995172114844369</v>
+      </c>
+      <c r="H2">
+        <v>3.6486254130710432</v>
+      </c>
+      <c r="I2">
+        <v>3.652807304336751</v>
+      </c>
+      <c r="J2">
+        <v>3.9680697610856992</v>
+      </c>
+      <c r="K2">
+        <v>3.6266560208776091</v>
+      </c>
+      <c r="L2">
+        <v>3.6078156829878698</v>
+      </c>
+      <c r="M2">
+        <v>3.8269742157059432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="B3" s="3"/>
+      <c r="C3">
+        <v>3.66219225837304</v>
+      </c>
+      <c r="D3">
+        <v>3.424402544901981</v>
+      </c>
+      <c r="E3">
+        <v>3.6070977691749722</v>
+      </c>
+      <c r="F3">
+        <v>3.713055295140939</v>
+      </c>
+      <c r="G3">
+        <v>3.7935464930280021</v>
+      </c>
+      <c r="H3">
+        <v>3.563762557751831</v>
+      </c>
+      <c r="I3">
+        <v>3.506499847899287</v>
+      </c>
+      <c r="J3">
+        <v>3.7187914743485129</v>
+      </c>
+      <c r="K3">
+        <v>3.2900337391191501</v>
+      </c>
+      <c r="L3">
+        <v>3.2979048749038031</v>
+      </c>
+      <c r="M3">
+        <v>3.3859915275048951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="B4" s="3"/>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3.662555265340953</v>
+      </c>
+      <c r="E4">
+        <v>3.5435929290299368</v>
+      </c>
+      <c r="F4">
+        <v>3.4716949542528188</v>
+      </c>
+      <c r="G4">
+        <v>3.3936100259535511</v>
+      </c>
+      <c r="H4">
+        <v>3.0890412087804791</v>
+      </c>
+      <c r="I4">
+        <v>2.928478464093478</v>
+      </c>
+      <c r="J4">
+        <v>3.0931745330133329</v>
+      </c>
+      <c r="K4">
+        <v>2.7511762867268068</v>
+      </c>
+      <c r="L4">
+        <v>2.7715191344776162</v>
+      </c>
+      <c r="M4">
+        <v>2.842381250386528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="B5" s="3"/>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3.2522409638187861</v>
+      </c>
+      <c r="F5">
+        <v>3.3626913539183478</v>
+      </c>
+      <c r="G5">
+        <v>3.2239418816392691</v>
+      </c>
+      <c r="H5">
+        <v>3.0077454985755758</v>
+      </c>
+      <c r="I5">
+        <v>2.8393021981780922</v>
+      </c>
+      <c r="J5">
+        <v>2.9833655623034399</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.7767466040168891</v>
+      </c>
+      <c r="L5">
+        <v>2.7970915741586828</v>
+      </c>
+      <c r="M5">
+        <v>3.1235233909821618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="B6" s="3"/>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3.4066366945096682</v>
+      </c>
+      <c r="G6">
+        <v>3.3436185730215211</v>
+      </c>
+      <c r="H6">
+        <v>3.203345492747812</v>
+      </c>
+      <c r="I6">
+        <v>3.057637198413627</v>
+      </c>
+      <c r="J6">
+        <v>3.1748475906732039</v>
+      </c>
+      <c r="K6">
+        <v>3.087393086705978</v>
+      </c>
+      <c r="L6">
+        <v>3.069343168091629</v>
+      </c>
+      <c r="M6">
+        <v>3.4597878683568291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="B7" s="3"/>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.9141182547991362</v>
+      </c>
+      <c r="H7">
+        <v>3.4294900598793099</v>
+      </c>
+      <c r="I7">
+        <v>3.3042043532629441</v>
+      </c>
+      <c r="J7">
+        <v>3.4167649755167648</v>
+      </c>
+      <c r="K7">
+        <v>3.380399545706283</v>
+      </c>
+      <c r="L7">
+        <v>3.321535579093684</v>
+      </c>
+      <c r="M7">
+        <v>3.6999528856485209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="B8" s="3"/>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.6145974414348681</v>
+      </c>
+      <c r="I8">
+        <v>3.462673594816311</v>
+      </c>
+      <c r="J8">
+        <v>3.704204138762528</v>
+      </c>
+      <c r="K8">
+        <v>3.6588202540735568</v>
+      </c>
+      <c r="L8">
+        <v>3.546029897841783</v>
+      </c>
+      <c r="M8">
+        <v>3.8654976607996998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="B9" s="3"/>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>3.6036096198618681</v>
+      </c>
+      <c r="J9">
+        <v>3.6283161161746191</v>
+      </c>
+      <c r="K9">
+        <v>3.6735267569157202</v>
+      </c>
+      <c r="L9">
+        <v>3.572757384406644</v>
+      </c>
+      <c r="M9">
+        <v>3.8895271203673358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="B10" s="3"/>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3.6539847161987291</v>
+      </c>
+      <c r="K10">
+        <v>3.7296518720731968</v>
+      </c>
+      <c r="L10">
+        <v>3.6300019941644308</v>
+      </c>
+      <c r="M10">
+        <v>3.8983042342509111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3.076187831879841</v>
-      </c>
-      <c r="C2">
-        <v>2.530558108618759</v>
-      </c>
-      <c r="D2">
-        <v>2.343092279518296</v>
-      </c>
-      <c r="E2">
-        <v>2.166326319877792</v>
-      </c>
-      <c r="F2">
-        <v>1.9483932582771959</v>
-      </c>
-      <c r="G2">
-        <v>1.6386189742304571</v>
-      </c>
-      <c r="H2">
-        <v>1.4334933259835501</v>
-      </c>
-      <c r="I2">
-        <v>1.159088989957205</v>
-      </c>
-      <c r="J2">
-        <v>0.40665853955682701</v>
-      </c>
-      <c r="K2">
-        <v>0.23033585535597759</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>3.02881868272739</v>
-      </c>
-      <c r="D3">
-        <v>2.8478109692311588</v>
-      </c>
-      <c r="E3">
-        <v>2.645992810420704</v>
-      </c>
-      <c r="F3">
-        <v>2.3919751104577922</v>
-      </c>
-      <c r="G3">
-        <v>2.0283395637656429</v>
-      </c>
-      <c r="H3">
-        <v>1.8111860072218131</v>
-      </c>
-      <c r="I3">
-        <v>1.5036469301099891</v>
-      </c>
-      <c r="J3">
-        <v>0.57322865840404391</v>
-      </c>
-      <c r="K3">
-        <v>0.43228022364041008</v>
-      </c>
-      <c r="L3">
-        <v>2.1849124370699191E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3.3279924578228348</v>
-      </c>
-      <c r="E4">
-        <v>3.1016019598190252</v>
-      </c>
-      <c r="F4">
-        <v>2.8132859871813372</v>
-      </c>
-      <c r="G4">
-        <v>2.3991133389435748</v>
-      </c>
-      <c r="H4">
-        <v>2.166342427321402</v>
-      </c>
-      <c r="I4">
-        <v>1.822888080269804</v>
-      </c>
-      <c r="J4">
-        <v>0.73165121860585747</v>
-      </c>
-      <c r="K4">
-        <v>0.61087197133315807</v>
-      </c>
-      <c r="L4">
-        <v>3.0650018587907859E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>3.28712927093942</v>
-      </c>
-      <c r="F5">
-        <v>3.002544114356211</v>
-      </c>
-      <c r="G5">
-        <v>2.5876110140030231</v>
-      </c>
-      <c r="H5">
-        <v>2.3693921565862759</v>
-      </c>
-      <c r="I5">
-        <v>2.040883247879381</v>
-      </c>
-      <c r="J5">
-        <v>0.97018338190271192</v>
-      </c>
-      <c r="K5">
-        <v>0.83634580292034155</v>
-      </c>
-      <c r="L5">
-        <v>0.48754457652407912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>3.239180542685594</v>
-      </c>
-      <c r="G6">
-        <v>2.847129967252541</v>
-      </c>
-      <c r="H6">
-        <v>2.6450068283192221</v>
-      </c>
-      <c r="I6">
-        <v>2.3462682851569991</v>
-      </c>
-      <c r="J6">
-        <v>1.414959824600909</v>
-      </c>
-      <c r="K6">
-        <v>1.235388991896839</v>
-      </c>
-      <c r="L6">
-        <v>0.98398635992506722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>3.1421874985695548</v>
-      </c>
-      <c r="H7">
-        <v>2.952233655247853</v>
-      </c>
-      <c r="I7">
-        <v>2.6805344356695051</v>
-      </c>
-      <c r="J7">
-        <v>1.862465345134837</v>
-      </c>
-      <c r="K7">
-        <v>1.638658768941939</v>
-      </c>
-      <c r="L7">
-        <v>1.426827417658459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3.3249057510189188</v>
-      </c>
-      <c r="I8">
-        <v>3.0768859746498398</v>
-      </c>
-      <c r="J8">
-        <v>2.365367887560839</v>
-      </c>
-      <c r="K8">
-        <v>2.0931970343773991</v>
-      </c>
-      <c r="L8">
-        <v>1.899154891723152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>3.2699658453588039</v>
-      </c>
-      <c r="J9">
-        <v>2.5591035096376031</v>
-      </c>
-      <c r="K9">
-        <v>2.2768130610635331</v>
-      </c>
-      <c r="L9">
-        <v>2.097660462887899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>2.8261436643900919</v>
-      </c>
-      <c r="K10">
-        <v>2.520454148250248</v>
-      </c>
-      <c r="L10">
-        <v>2.352852247641303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11">
         <v>0</v>
       </c>
@@ -2218,19 +2273,20 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.1502137062556872</v>
+        <v>3.5037997813851591</v>
       </c>
       <c r="L11">
-        <v>2.973013305031122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.544496946406583</v>
+      </c>
+      <c r="M11">
+        <v>3.583001114366362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12">
         <v>0</v>
       </c>
@@ -2259,11 +2315,23 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.3271394678082928</v>
+        <v>3.476958373107629</v>
+      </c>
+      <c r="M12">
+        <v>3.787811178520248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>3.449640298249316</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="1">
@@ -490,7 +490,9 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>3.66219225837304</v>
       </c>
@@ -529,7 +531,9 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>0</v>
       </c>
@@ -568,7 +572,9 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -607,7 +613,9 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>0</v>
       </c>
@@ -646,7 +654,9 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>0</v>
       </c>
@@ -685,7 +695,9 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>0</v>
       </c>
@@ -724,7 +736,9 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>0</v>
       </c>
@@ -763,7 +777,9 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -802,7 +818,9 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -841,7 +859,9 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -880,7 +900,39 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
       <c r="M13">
         <v>3.449640298249316</v>
       </c>
@@ -1846,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
